--- a/biology/Botanique/Latin_botanique/Latin_botanique.xlsx
+++ b/biology/Botanique/Latin_botanique/Latin_botanique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En botanique, comme dans d’autres sciences dites « naturelles », l’usage du latin existe sans discontinuer depuis que Carl von Linné, en 1753, a mis au point ce que nous appelons désormais « la nomenclature binominale ».
 Mais les botanistes du début du XXIe siècle, contrairement à d'autres scientifiques, avaient également une obligation pour valider leurs définitions des types d'une espèce : c'est en langue latine qu'ils devaient non seulement rédiger, mais également publier, leur diagnose (ou étude descriptive). Ce qui n'est plus le cas depuis la publication de l'article 39.2 du dernier Code international de nomenclature pour les algues, les champignons et les plantes : depuis le 1er janvier 2012, tout nouveau taxon peut avoir une diagnose rédigée en latin OU en langue anglaise.
